--- a/分工开发.xlsx
+++ b/分工开发.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>单页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据数据库中项目的相关信息生成项目页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,14 +51,106 @@
   </si>
   <si>
     <t>冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入项目的详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据数据库中项目的相关信息生成项目页面，包括项目评论模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示推荐项目，热门项目，广告等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码需要发送找回链接到用户邮箱，用户点击后跳转到密码重置页面进行密码重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改暂存的/已提交审核项目的详细信息（审核通过后不允许再修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目认购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括预约认购，确认认购的页面，用户点击认购按钮跳转，需要支持支付宝、网银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些关于网站流程、QA、声明之类的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括个人信息维护认证，我关注的项目，我预约的项目，我投资的项目，我发起的项目，我的私信等模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台-参数配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台-信息统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括系统参数配置，首页展示广告等配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些关心的指标的统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥用，还是留着吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台-项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括项目审核，项目阶段手工调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台-用户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -114,6 +202,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -130,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,7 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -239,7 +329,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,22 +504,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="46.875" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="80.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="21.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -438,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -454,19 +543,15 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="46.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -478,15 +563,15 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="46.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -502,11 +587,19 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+    <row r="4" spans="1:14" ht="36.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -518,9 +611,13 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:14" ht="42" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -534,9 +631,13 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+    <row r="6" spans="1:14" ht="42" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -550,9 +651,13 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:14" ht="42" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -566,9 +671,13 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:14" ht="42" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -582,9 +691,13 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:14" ht="42" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -598,9 +711,13 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:14" ht="42" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -614,9 +731,13 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:14" ht="42" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -630,9 +751,13 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:14" ht="42" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -646,9 +771,13 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:14" ht="42" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -662,9 +791,13 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:14" ht="42" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -678,9 +811,9 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -694,9 +827,9 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -710,9 +843,9 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -726,9 +859,9 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -742,9 +875,9 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -758,9 +891,9 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -774,9 +907,9 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -790,9 +923,9 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -806,9 +939,9 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -822,9 +955,9 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -838,9 +971,9 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -854,9 +987,9 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -870,20 +1003,148 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="1"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,12 +1152,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
